--- a/client/BranchDialog_Chapter10001.xlsx
+++ b/client/BranchDialog_Chapter10001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>序号
 左起为回序号
@@ -88,69 +88,36 @@
     </r>
   </si>
   <si>
-    <t>府内花园</t>
-  </si>
-  <si>
     <t>初秋时节，天朗气清，我曳着裙角缓步移至府内花园。</t>
   </si>
   <si>
-    <t>旁白</t>
-  </si>
-  <si>
     <t>待行至栖霞湖畔，临水而建的亭子旁，几个丫鬟的笑闹声便远远传来。</t>
   </si>
   <si>
     <t>我抬眼望去，三四个丫鬟围着绿瑶，其中一个丫鬟高举着一盘糕点嬉笑着。</t>
   </si>
   <si>
-    <t>远景</t>
-  </si>
-  <si>
     <t>红蔷姐快接着，别让她夺了去！嘻嘻……瞧她那蠢样！</t>
   </si>
   <si>
-    <t>丫鬟甲</t>
-  </si>
-  <si>
     <t>红蔷是沈夫人房内的一等丫头，她接过糕点盘子又高举着送到下一个丫鬟手中。</t>
   </si>
   <si>
-    <t>红蔷（大丫鬟）</t>
-  </si>
-  <si>
     <t>这些丫鬟团团围着绿瑶，将一盘糕点传来传去，就是不让绿瑶碰到半分。</t>
   </si>
   <si>
-    <t>红蔷</t>
-  </si>
-  <si>
     <t>绿瑶着急的一会往这里抓，一边又往那边夺，被他们当猴一般戏耍。</t>
   </si>
   <si>
-    <t>绿瑶</t>
-  </si>
-  <si>
     <t>你们做什么欺负她？！</t>
   </si>
   <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>震动</t>
-  </si>
-  <si>
     <t>四娘子，我们并非欺负她，而是拿贼赃呢！</t>
   </si>
   <si>
-    <t>中景</t>
-  </si>
-  <si>
     <t>前日大厨房说丢了小半袋茯苓粉，这茯苓粉粉质极好，拢共只有十斤，只有老夫人、两房夫人和大厨房才有。</t>
   </si>
   <si>
-    <t>近景</t>
-  </si>
-  <si>
     <t>绿瑶定是偷了大厨房的茯苓粉，四娘子请看这盘水晶茯苓糕就是证据！</t>
   </si>
   <si>
@@ -160,18 +127,12 @@
     <t>我没有偷，这做糕的茯苓粉不是偷的！</t>
   </si>
   <si>
-    <t>面对二人的说辞，我该如何处理</t>
-  </si>
-  <si>
-    <t>选项标题</t>
+    <t>面对众人的指控与百口莫辩的绿瑶，我该怎么办？</t>
   </si>
   <si>
     <t>相信绿瑶，为其辩白</t>
   </si>
   <si>
-    <t>选项</t>
-  </si>
-  <si>
     <t>将信将疑，询问绿瑶</t>
   </si>
   <si>
@@ -179,9 +140,6 @@
   </si>
   <si>
     <t>怎么？我想吃个茯苓粉做的糕点，在园内赏赏花，也要丫鬟过问了吗？</t>
-  </si>
-  <si>
-    <t>特写</t>
   </si>
   <si>
     <t>既然如此，为何绿瑶方才支支吾吾不肯回答？</t>
@@ -296,8 +254,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -337,14 +295,59 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,39 +355,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,86 +384,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,55 +484,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,121 +628,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,56 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -821,8 +729,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,10 +792,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,133 +804,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,13 +1299,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="125.625" customWidth="1"/>
@@ -1361,292 +1319,197 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:5">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>1014</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>1022</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>1023</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1654,77 +1517,57 @@
         <v>1024</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C26" s="11"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>1025</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>1026</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>1027</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>1028</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>1029</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>1030</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1732,44 +1575,33 @@
         <v>1031</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>17</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>1032</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>1033</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>1034</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1777,58 +1609,41 @@
         <v>1035</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C37" s="11"/>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>1036</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>1037</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>1038</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>1039</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1836,44 +1651,33 @@
         <v>1040</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C42" s="11"/>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>1041</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>1042</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>1043</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1881,11 +1685,9 @@
         <v>1044</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>19</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C46" s="11"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4">
@@ -1893,11 +1695,9 @@
         <v>1045</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>15</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4">
@@ -1905,94 +1705,65 @@
         <v>1046</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C48" s="11"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>1047</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>1048</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>1049</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>1050</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>1051</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>1052</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>1053</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
